--- a/scenarios_and_results/Scenario_E.xlsx
+++ b/scenarios_and_results/Scenario_E.xlsx
@@ -696,40 +696,40 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>3753.417360403894</v>
+        <v>3753.417360403905</v>
       </c>
       <c r="C3">
-        <v>1.407081100068212</v>
+        <v>1.407081100068216</v>
       </c>
       <c r="D3">
-        <v>5.742385914208924</v>
+        <v>5.742385914208939</v>
       </c>
       <c r="E3">
-        <v>5.742385914208924</v>
+        <v>5.742385914208939</v>
       </c>
       <c r="F3">
-        <v>0.1434662162073762</v>
+        <v>0.1434662162073766</v>
       </c>
       <c r="G3">
-        <v>5.742385914208925E-05</v>
+        <v>5.74238591420894E-05</v>
       </c>
       <c r="H3">
-        <v>0.1435236400665182</v>
+        <v>0.1435236400665187</v>
       </c>
       <c r="I3">
-        <v>5.742385914208925E-05</v>
+        <v>5.74238591420894E-05</v>
       </c>
       <c r="J3">
-        <v>5.742385914208924</v>
+        <v>5.742385914208939</v>
       </c>
       <c r="K3">
-        <v>0.1435236400665182</v>
+        <v>0.1435236400665187</v>
       </c>
       <c r="L3">
-        <v>0.4793155627203525</v>
+        <v>0.4793155627203514</v>
       </c>
       <c r="M3">
-        <v>24.99372947251494</v>
+        <v>24.99372947251495</v>
       </c>
       <c r="N3">
         <v>0.1746471130824882</v>
@@ -738,19 +738,19 @@
         <v>0.1746471130824882</v>
       </c>
       <c r="P3">
-        <v>0.1435236400663703</v>
+        <v>0.1435236400663702</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>24.99372947248917</v>
+        <v>24.99372947248909</v>
       </c>
       <c r="S3">
-        <v>24.99372947251494</v>
+        <v>24.99372947251495</v>
       </c>
       <c r="T3">
-        <v>24.98372947251494</v>
+        <v>24.98372947251495</v>
       </c>
       <c r="U3">
         <v>0.01</v>
@@ -759,10 +759,10 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>2.858939792760759</v>
+        <v>2.858267140660319</v>
       </c>
       <c r="X3">
-        <v>2.883446121448165</v>
+        <v>2.884118773548622</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -835,61 +835,61 @@
         <v>27</v>
       </c>
       <c r="B5">
-        <v>954.0503461215586</v>
+        <v>954.0503461215606</v>
       </c>
       <c r="C5">
-        <v>5.910341894223055</v>
+        <v>5.910341894223067</v>
       </c>
       <c r="D5">
-        <v>6.238001039258741</v>
+        <v>6.238001039258788</v>
       </c>
       <c r="E5">
-        <v>6.238001039258741</v>
+        <v>6.238001039258788</v>
       </c>
       <c r="F5">
-        <v>0.5927951684824125</v>
+        <v>0.5927951684824138</v>
       </c>
       <c r="G5">
-        <v>0.07735121288680839</v>
+        <v>0.07735121288680898</v>
       </c>
       <c r="H5">
-        <v>0.6701463813692209</v>
+        <v>0.6701463813692228</v>
       </c>
       <c r="I5">
-        <v>0.07735121288680839</v>
+        <v>0.07735121288680898</v>
       </c>
       <c r="J5">
-        <v>6.238001039258741</v>
+        <v>6.238001039258788</v>
       </c>
       <c r="K5">
-        <v>0.6701463813692209</v>
+        <v>0.6701463813692228</v>
       </c>
       <c r="L5">
-        <v>0.5206844372796473</v>
+        <v>0.5206844372796486</v>
       </c>
       <c r="M5">
-        <v>107.429668118307</v>
+        <v>107.4296681183065</v>
       </c>
       <c r="N5">
-        <v>0.7463972715409677</v>
+        <v>0.7463972715409718</v>
       </c>
       <c r="O5">
-        <v>0.7463972715409677</v>
+        <v>0.7463972715409718</v>
       </c>
       <c r="P5">
-        <v>0.6701463813694261</v>
+        <v>0.6701463813694661</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>107.4296681183399</v>
+        <v>107.4296681183455</v>
       </c>
       <c r="S5">
-        <v>107.429668118307</v>
+        <v>107.4296681183065</v>
       </c>
       <c r="T5">
-        <v>95.02966811830704</v>
+        <v>95.02966811830652</v>
       </c>
       <c r="U5">
         <v>12.4</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="W5">
-        <v>5.668087915797304</v>
+        <v>5.66876056789775</v>
       </c>
       <c r="X5">
-        <v>0.5699131234614356</v>
+        <v>0.5692404713610378</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -912,76 +912,76 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>30.48768940579633</v>
+        <v>30.48768940579637</v>
       </c>
       <c r="C6">
-        <v>0.01255605000488316</v>
+        <v>0.01255605000488318</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04698983592891491</v>
+        <v>0.04698983592891399</v>
       </c>
       <c r="F6">
-        <v>0.00140224433426081</v>
+        <v>0.001402244334260811</v>
       </c>
       <c r="G6">
-        <v>0.000211454261680117</v>
+        <v>0.000211454261680113</v>
       </c>
       <c r="H6">
-        <v>0.001613698595940927</v>
+        <v>0.001613698595940924</v>
       </c>
       <c r="I6">
-        <v>5.849869921803476E-17</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1.257722033187748E-15</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.001402244334260869</v>
+        <v>0.001402244334260811</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1114907982256480</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>4.70929668213934E-15</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1759443442947761</v>
+        <v>0.1759443442947725</v>
       </c>
       <c r="P6">
-        <v>0.01178353821693759</v>
+        <v>0.01178353821693752</v>
       </c>
       <c r="Q6">
         <v>0.01016983962100005</v>
       </c>
       <c r="R6">
-        <v>250.767809335692</v>
+        <v>250.7678093356956</v>
       </c>
       <c r="S6">
-        <v>250.7678093357643</v>
+        <v>250.767809335769</v>
       </c>
       <c r="T6">
-        <v>29.841439250439</v>
+        <v>29.84143925043961</v>
       </c>
       <c r="U6">
-        <v>4.499999999999998</v>
+        <v>4.500000000000002</v>
       </c>
       <c r="V6">
-        <v>216.4263700853253</v>
+        <v>216.4263700853294</v>
       </c>
       <c r="W6">
-        <v>0.04698983592891481</v>
+        <v>0.04698983592891399</v>
       </c>
       <c r="X6">
-        <v>8.954542630501794E-17</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.04698983592891363</v>
+        <v>0.04698983592891399</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>6.152856002472618E-19</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1093,19 +1093,34 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.138333642286349E-20</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>2.138333642286349E-20</v>
+      </c>
+      <c r="R8">
+        <v>34.75351351351352</v>
+      </c>
+      <c r="S8">
+        <v>34.75351351351352</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>34.75351351351352</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>6.152856002472618E-19</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>6.152856002472618E-19</v>
       </c>
     </row>
   </sheetData>
@@ -1200,76 +1215,76 @@
         <v>50</v>
       </c>
       <c r="B2">
-        <v>0.2162586692009883</v>
+        <v>0.2162586692009812</v>
       </c>
       <c r="C2">
-        <v>0.1487867115420653</v>
+        <v>0.1487867115420613</v>
       </c>
       <c r="D2">
-        <v>0.1487867115419964</v>
+        <v>0.1487867115419924</v>
       </c>
       <c r="E2">
-        <v>269.5805793041636</v>
+        <v>269.580579304162</v>
       </c>
       <c r="F2">
-        <v>0.6898956000205599</v>
+        <v>0.6898956000205421</v>
       </c>
       <c r="G2">
-        <v>4.636809247752148</v>
+        <v>4.636809247752152</v>
       </c>
       <c r="H2">
-        <v>0.1859824555129361</v>
+        <v>0.1859824555129301</v>
       </c>
       <c r="I2">
-        <v>0.1859824555129361</v>
+        <v>0.1859824555129301</v>
       </c>
       <c r="J2">
-        <v>0.01346803960239865</v>
+        <v>0.0134680396023983</v>
       </c>
       <c r="K2">
-        <v>0.000576545612090102</v>
+        <v>0.0005765456120900835</v>
       </c>
       <c r="L2">
-        <v>0.01404458521448875</v>
+        <v>0.01404458521448838</v>
       </c>
       <c r="M2">
-        <v>0.003730455029256762</v>
+        <v>0.003730455029257062</v>
       </c>
       <c r="N2">
-        <v>0.01777504024370448</v>
+        <v>0.01777504024370437</v>
       </c>
       <c r="O2">
-        <v>0.1859824555129361</v>
+        <v>0.1859824555129301</v>
       </c>
       <c r="P2">
-        <v>95.57374750603375</v>
+        <v>95.57374750603647</v>
       </c>
       <c r="Q2">
-        <v>0.1659224969643689</v>
+        <v>0.1659224969643678</v>
       </c>
       <c r="R2">
-        <v>0.1426933473894894</v>
+        <v>0.1426933473894886</v>
       </c>
       <c r="S2">
-        <v>0.09437226131119276</v>
+        <v>0.09437226131119031</v>
       </c>
       <c r="T2">
-        <v>0.01455134038881398</v>
+        <v>0.0145513403888136</v>
       </c>
       <c r="U2">
-        <v>0.07982092092237879</v>
+        <v>0.07982092092237671</v>
       </c>
       <c r="V2">
-        <v>95.57374750581313</v>
+        <v>95.5737475058156</v>
       </c>
       <c r="W2">
-        <v>72.41564568686896</v>
+        <v>72.4156456868694</v>
       </c>
       <c r="X2">
         <v>3.100000000000001</v>
       </c>
       <c r="Y2">
-        <v>20.05810181916481</v>
+        <v>20.05810181916707</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1389,13 +1404,13 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>3.148785466838168</v>
+        <v>3.148785466838228</v>
       </c>
       <c r="C5">
-        <v>1.461836060361681</v>
+        <v>1.46183606036169</v>
       </c>
       <c r="D5">
-        <v>1.081758684667644</v>
+        <v>1.08175868466765</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1413,52 +1428,52 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07686844766576771</v>
+        <v>0.07686844766576816</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07686844766576771</v>
+        <v>0.07686844766576816</v>
       </c>
       <c r="M5">
-        <v>0.1122168363235037</v>
+        <v>0.1122168363235144</v>
       </c>
       <c r="N5">
-        <v>0.1890852839892455</v>
+        <v>0.1890852839892585</v>
       </c>
       <c r="O5">
-        <v>2.330101245460245</v>
+        <v>2.330101245460289</v>
       </c>
       <c r="P5">
-        <v>81.14895623427</v>
+        <v>81.14895623427324</v>
       </c>
       <c r="Q5">
-        <v>0.2458896763491031</v>
+        <v>0.2458896763491063</v>
       </c>
       <c r="R5">
-        <v>0.2458896763491032</v>
+        <v>0.2458896763491064</v>
       </c>
       <c r="S5">
-        <v>0.6578262271627565</v>
+        <v>0.6578262271627604</v>
       </c>
       <c r="T5">
-        <v>0.6578262271627565</v>
+        <v>0.6578262271627604</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>81.14895623425886</v>
+        <v>81.14895623426293</v>
       </c>
       <c r="W5">
-        <v>32.98931658679258</v>
+        <v>32.98931658679216</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
-        <v>48.15963964747742</v>
+        <v>48.15963964748109</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1466,22 +1481,22 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>0.07086859712543765</v>
+        <v>0.07086859712543833</v>
       </c>
       <c r="C6">
-        <v>0.8259100854193315</v>
+        <v>0.8259100854193362</v>
       </c>
       <c r="D6">
-        <v>0.2694953308277085</v>
+        <v>0.2694953308277157</v>
       </c>
       <c r="E6">
-        <v>40.58129588606968</v>
+        <v>40.58129588606935</v>
       </c>
       <c r="F6">
-        <v>34.92672945900905</v>
+        <v>34.92672945900964</v>
       </c>
       <c r="G6">
-        <v>129.6004993917246</v>
+        <v>129.6004993917233</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1490,52 +1505,52 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.012913304952752</v>
+        <v>0.01291330495275221</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.012913304952752</v>
+        <v>0.01291330495275221</v>
       </c>
       <c r="M6">
-        <v>0.121659324900344</v>
+        <v>0.1216593249003524</v>
       </c>
       <c r="N6">
-        <v>0.1345726298531085</v>
+        <v>0.1345726298531166</v>
       </c>
       <c r="O6">
-        <v>1.417371942508753</v>
+        <v>1.417371942508765</v>
       </c>
       <c r="P6">
-        <v>94.94517692716705</v>
+        <v>94.9451769271723</v>
       </c>
       <c r="Q6">
-        <v>0.2057009298714688</v>
+        <v>0.2057009298714696</v>
       </c>
       <c r="R6">
-        <v>0.6003831293148366</v>
+        <v>0.6003831293148258</v>
       </c>
       <c r="S6">
-        <v>0.09917751677355477</v>
+        <v>0.09917751677355635</v>
       </c>
       <c r="T6">
-        <v>0.004875347234230313</v>
+        <v>0.004875347234230341</v>
       </c>
       <c r="U6">
-        <v>0.09430216953932445</v>
+        <v>0.09430216953932601</v>
       </c>
       <c r="V6">
-        <v>94.94517692717586</v>
+        <v>94.94517692718078</v>
       </c>
       <c r="W6">
-        <v>9.110738378167275</v>
+        <v>9.110738378167344</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>85.83443854899977</v>
+        <v>85.83443854900497</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1546,19 +1561,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01949533082770852</v>
+        <v>0.01949533082771438</v>
       </c>
       <c r="D7">
-        <v>0.0709016032692938</v>
+        <v>0.07090160326929389</v>
       </c>
       <c r="E7">
-        <v>1.126646483583031</v>
+        <v>1.126646483583328</v>
       </c>
       <c r="F7">
-        <v>96.99465608701055</v>
+        <v>96.99465608701222</v>
       </c>
       <c r="G7">
-        <v>1368.017810804811</v>
+        <v>1368.017810804833</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1567,52 +1582,52 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0009635565090211986</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.0009635565090211986</v>
       </c>
       <c r="M7">
-        <v>0.009206283112943421</v>
+        <v>0.009206283112946519</v>
       </c>
       <c r="N7">
-        <v>0.01016983962099978</v>
+        <v>0.01016983962100282</v>
       </c>
       <c r="O7">
-        <v>0.1092786882067759</v>
+        <v>0.1092786882068066</v>
       </c>
       <c r="P7">
-        <v>84.24591531995148</v>
+        <v>93.06333914552131</v>
       </c>
       <c r="Q7">
-        <v>0.8203652968036529</v>
+        <v>0.820365296803653</v>
       </c>
       <c r="R7">
-        <v>0.1759443442947713</v>
+        <v>0.1759443442948205</v>
       </c>
       <c r="S7">
-        <v>0.007307852607485337</v>
+        <v>0.007307852607487536</v>
       </c>
       <c r="T7">
-        <v>0.007307852607485337</v>
+        <v>0.007307852607487536</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>93.0633391366899</v>
+        <v>93.06333913669162</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>8.817423825565125</v>
       </c>
       <c r="X7">
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>84.24591531995148</v>
+        <v>84.24591531995618</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1620,13 +1635,13 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>0.006058449248268195</v>
+        <v>0.006058449248270053</v>
       </c>
       <c r="C8">
-        <v>0.0008438847255999361</v>
+        <v>0.00084388472560018</v>
       </c>
       <c r="D8">
-        <v>0.003013874019999772</v>
+        <v>0.003013874020000643</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1644,52 +1659,52 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.001824625960166695</v>
+        <v>0.001824625960167222</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.001824625960166695</v>
+        <v>0.001824625960167222</v>
       </c>
       <c r="M8">
-        <v>0.001242276928931079</v>
+        <v>0.001242276928931435</v>
       </c>
       <c r="N8">
-        <v>0.003066902889096631</v>
+        <v>0.003066902889097638</v>
       </c>
       <c r="O8">
-        <v>0.02163731874381496</v>
+        <v>0.02163731874382162</v>
       </c>
       <c r="P8">
-        <v>141.7413555445472</v>
+        <v>141.7413555445445</v>
       </c>
       <c r="Q8">
-        <v>0.8195477112975703</v>
+        <v>0.8195477112975847</v>
       </c>
       <c r="R8">
-        <v>0.8195477112975698</v>
+        <v>0.8195477112975847</v>
       </c>
       <c r="S8">
-        <v>0.003375538902399744</v>
+        <v>0.00337553890240072</v>
       </c>
       <c r="T8">
-        <v>0.003375538902399744</v>
+        <v>0.00337553890240072</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8">
-        <v>141.7413555444945</v>
+        <v>141.7413555444974</v>
       </c>
       <c r="W8">
-        <v>84.32772940909165</v>
+        <v>84.32772940909008</v>
       </c>
       <c r="X8">
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>57.41362613545564</v>
+        <v>57.41362613545443</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1697,13 +1712,13 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>0.01138806249673865</v>
+        <v>0.01138806249674214</v>
       </c>
       <c r="C9">
-        <v>0.001586249484209561</v>
+        <v>0.001586249484210257</v>
       </c>
       <c r="D9">
-        <v>0.00452081102999725</v>
+        <v>0.004520811029999232</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1721,52 +1736,52 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0003254827800752383</v>
       </c>
       <c r="K9">
-        <v>0.0001012626517210001</v>
+        <v>0.0001012626517210312</v>
       </c>
       <c r="L9">
-        <v>0.0001012626517210001</v>
+        <v>0.0004267454317962695</v>
       </c>
       <c r="M9">
-        <v>0.000532331264448182</v>
+        <v>0.0005323312644483</v>
       </c>
       <c r="N9">
-        <v>0.0009590766962439837</v>
+        <v>0.0009590766962442771</v>
       </c>
       <c r="O9">
-        <v>0.03245597811570516</v>
+        <v>0.03245597811571512</v>
       </c>
       <c r="P9">
-        <v>19.5216398627836</v>
+        <v>29.5500783499785</v>
       </c>
       <c r="Q9">
-        <v>0.8195477112975696</v>
+        <v>0.8195477112974617</v>
       </c>
       <c r="R9">
-        <v>0.8195477112975696</v>
+        <v>0.8195477112974618</v>
       </c>
       <c r="S9">
-        <v>0.003164567720998075</v>
+        <v>0.003164567720999462</v>
       </c>
       <c r="T9">
-        <v>0.003164567720998075</v>
+        <v>0.003164567720999462</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>29.55007834996952</v>
+        <v>29.5500783499695</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>10.0284384871963</v>
       </c>
       <c r="X9">
-        <v>3.12</v>
+        <v>3.119999999999999</v>
       </c>
       <c r="Y9">
-        <v>16.4016398627836</v>
+        <v>16.4016398627822</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1777,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.002110612912471879</v>
+        <v>0.002110612912472482</v>
       </c>
       <c r="D10">
-        <v>0.003010870358430317</v>
+        <v>0.003010870358431223</v>
       </c>
       <c r="E10">
-        <v>91.92938320732182</v>
+        <v>92.02731396741854</v>
       </c>
       <c r="F10">
-        <v>0.01509640305414083</v>
+        <v>0.01509640305414488</v>
       </c>
       <c r="G10">
-        <v>5.013966480446925</v>
+        <v>5.013966480446764</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1798,52 +1813,52 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3.957032617682048E-06</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.957032617682048E-06</v>
       </c>
       <c r="M10">
-        <v>0.0002532725357340658</v>
+        <v>0.0002534695128215289</v>
       </c>
       <c r="N10">
-        <v>0.0002572295683517495</v>
+        <v>0.0002574265454392041</v>
       </c>
       <c r="O10">
-        <v>0.001387803021416296</v>
+        <v>0.001389281423642487</v>
       </c>
       <c r="P10">
-        <v>182.4989078605647</v>
+        <v>185.2947437850837</v>
       </c>
       <c r="Q10">
-        <v>0.07506113580023564</v>
+        <v>0.0751410971121302</v>
       </c>
       <c r="R10">
-        <v>0.05261767648055617</v>
+        <v>0.05267372916874279</v>
       </c>
       <c r="S10">
-        <v>3.816627330938722E-05</v>
+        <v>3.816627330939747E-05</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>3.816627330938722E-05</v>
+        <v>3.816627330939747E-05</v>
       </c>
       <c r="V10">
-        <v>185.3502005560118</v>
+        <v>185.2947437850787</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>2.848258495609409</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>182.4989078605647</v>
+        <v>182.4464852894743</v>
       </c>
     </row>
   </sheetData>
